--- a/megametadata.xlsx
+++ b/megametadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colea\Google Drive\Thinkful\Thinkful_Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF432904-3135-40CD-8774-CFC6B84D030C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA03E2CE-BA55-4CBD-B956-6E1EE5E51D39}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{A27A11E9-9593-402E-8D67-2D9F3B27D7A0}"/>
   </bookViews>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F47133D-BDD2-4C2D-AD72-B1FE292D5E49}">
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
